--- a/doc/Eveluate_result.xlsx
+++ b/doc/Eveluate_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentkang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentkang/Documents/GitHub/Spring2018-Project4-grp9/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>MS_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Cluster model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +433,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +486,9 @@
       <c r="E3" s="2">
         <v>68.624279999999999</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>65.317899999999995</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -500,7 +506,9 @@
       <c r="E4" s="2">
         <v>33.011969999999998</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>38.47251</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -518,7 +526,9 @@
       <c r="E5" s="2">
         <v>3.272982E-2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>5.3389090000000002E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -536,7 +546,9 @@
       <c r="E6" s="3">
         <v>0.97589999999999999</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">

--- a/doc/Eveluate_result.xlsx
+++ b/doc/Eveluate_result.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentkang/Documents/GitHub/Spring2018-Project4-grp9/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crystalliu/Desktop/Spring2018-Project4-grp9/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="9280" yWindow="2540" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>MS_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coverage (N=20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank Score (Train)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +72,6 @@
   </si>
   <si>
     <t>Cluster model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +79,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,7 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,182 +463,119 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
         <v>91.24915</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>89.273849999999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>81.625500000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>68.624279999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>65.317899999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
         <v>33.756010000000003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>34.044409999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>36.194020000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>33.011969999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>38.47251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.2297190000000003E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.148285E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.1569939999999998E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.272982E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.3389090000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.7923</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="B9" s="3">
+        <v>1.0261</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0424709999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.5468090000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.078254</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0411049999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0411049999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.2341340000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0746960000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.5468090000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.078254</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.0411049999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.0411049999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.67741720000000005</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.67959130000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.66937500000000005</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.67597410000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.69311970000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.59245460000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.81069999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.60509999999999997</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.52110000000000001</v>
+      <c r="B10" s="3">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.74060899999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.72537399999999996</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.73023199999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.71058500000000002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.34028190000000003</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Eveluate_result.xlsx
+++ b/doc/Eveluate_result.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crystalliu/Desktop/Spring2018-Project4-grp9/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentkang/Documents/GitHub/Spring2018-Project4-grp9/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="2540" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>MS_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Coverage (N=20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rank Score (Train)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +79,10 @@
   </si>
   <si>
     <t>Cluster model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,10 +90,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,10 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,119 +467,182 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
         <v>91.24915</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>89.273849999999996</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>81.625500000000002</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>68.624279999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>65.317899999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
         <v>33.756010000000003</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>34.044409999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>36.194020000000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>33.011969999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>38.47251</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.2297190000000003E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.148285E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.1569939999999998E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.272982E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.3389090000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.7923</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
-        <v>1.0261</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0424709999999999</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B11" s="2">
+        <v>1.037488</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0746960000000001</v>
+      </c>
+      <c r="D11" s="2">
         <v>1.5468090000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="2">
         <v>1.078254</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="2">
         <v>1.0411049999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="2">
         <v>1.0411049999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.74060899999999996</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.72537399999999996</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.73023199999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.71058500000000002</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.34028190000000003</v>
+      <c r="B12" s="2">
+        <v>0.75836519999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.67959130000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.66937500000000005</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.67597410000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.69311970000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.59245460000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.52110000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Eveluate_result.xlsx
+++ b/doc/Eveluate_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="4940" yWindow="520" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>

--- a/doc/Eveluate_result.xlsx
+++ b/doc/Eveluate_result.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kentkang/Documents/GitHub/Spring2018-Project4-grp9/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crystalliu/Desktop/Spring2018-Project4-grp9/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="520" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="3580" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>MS_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coverage (N=20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank Score (Train)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +72,6 @@
   </si>
   <si>
     <t>Cluster model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +79,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,7 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,182 +463,119 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
         <v>91.24915</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>89.273849999999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>81.625500000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>68.624279999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>65.317899999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>33.756010000000003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>34.044409999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>36.194020000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>33.011969999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>38.47251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.2297190000000003E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.148285E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.1569939999999998E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.272982E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.3389090000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.7923</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="B9" s="4">
+        <v>1.0261</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0425</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1157999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0619000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0411049999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0411049999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.037488</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0746960000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.5468090000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.078254</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.0411049999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.0411049999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.75836519999999996</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.67959130000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.66937500000000005</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.67597410000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.69311970000000001</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B10" s="4">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.59245460000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.81069999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.60509999999999997</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.52110000000000001</v>
       </c>
     </row>
   </sheetData>
